--- a/data/trans_dic/iP31A_R2-Edad-trans_dic.xlsx
+++ b/data/trans_dic/iP31A_R2-Edad-trans_dic.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>46,93; 69,39</t>
+          <t>47,42; 69,78</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>53,81; 74,81</t>
+          <t>55,35; 75,71</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>55,63; 69,9</t>
+          <t>55,01; 70,11</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>63,17; 74,47</t>
+          <t>63,12; 74,87</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>65,89; 76,39</t>
+          <t>65,26; 76,74</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>65,7; 74,07</t>
+          <t>65,97; 73,98</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>60,88; 73,01</t>
+          <t>61,05; 73,26</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>56,6; 69,33</t>
+          <t>55,75; 69,18</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>60,52; 69,6</t>
+          <t>60,25; 69,72</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>52,1; 64,76</t>
+          <t>52,45; 65,23</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>49,09; 62,26</t>
+          <t>49,87; 62,78</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>53,61; 62,61</t>
+          <t>54,11; 62,63</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>60,33; 67,32</t>
+          <t>60,36; 67,32</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>58,9; 66,03</t>
+          <t>59,3; 66,24</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>60,54; 65,59</t>
+          <t>60,73; 65,81</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/iP31A_R2-Edad-trans_dic.xlsx
+++ b/data/trans_dic/iP31A_R2-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -503,12 +503,12 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="E1" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>59,3%</t>
+          <t>64,67%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>66,21%</t>
+          <t>58,39%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>62,87%</t>
+          <t>61,57%</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>47,42; 69,78</t>
+          <t>52,76; 73,85</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>55,35; 75,71</t>
+          <t>47,49; 69,26</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>55,01; 70,11</t>
+          <t>54,09; 69,24</t>
         </is>
       </c>
     </row>
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>69,01%</t>
+          <t>70,88%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>71,14%</t>
+          <t>67,95%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>70,03%</t>
+          <t>69,32%</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>63,12; 74,87</t>
+          <t>64,39; 76,38</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>65,26; 76,74</t>
+          <t>61,64; 73,79</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>65,97; 73,98</t>
+          <t>65,06; 73,45</t>
         </is>
       </c>
     </row>
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>67,2%</t>
+          <t>61,46%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>63,17%</t>
+          <t>66,37%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>65,33%</t>
+          <t>64,16%</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>61,05; 73,26</t>
+          <t>53,77; 67,74</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>55,75; 69,18</t>
+          <t>59,94; 72,19</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>60,25; 69,72</t>
+          <t>59,27; 68,56</t>
         </is>
       </c>
     </row>
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>59,04%</t>
+          <t>51,67%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>56,72%</t>
+          <t>55,78%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>57,94%</t>
+          <t>53,83%</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>52,45; 65,23</t>
+          <t>34,35; 60,07</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>49,87; 62,78</t>
+          <t>48,57; 62,07</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>54,11; 62,63</t>
+          <t>46,19; 59,68</t>
         </is>
       </c>
     </row>
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>63,84%</t>
+          <t>59,87%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>62,75%</t>
+          <t>61,93%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>63,32%</t>
+          <t>60,97%</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>60,36; 67,32</t>
+          <t>51,13; 63,99</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>59,3; 66,24</t>
+          <t>57,81; 65,7</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>60,73; 65,81</t>
+          <t>56,73; 63,7</t>
         </is>
       </c>
     </row>
